--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C36CF225-AC7E-4DE9-A66C-8A27A847A707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E55BC94-1082-4DE8-BE3C-3D3F234F2621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AA63A27-FF70-41BE-B37E-5B1011947D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41DF3D5B-F482-48E1-83D5-BCE38E7642FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41DF3D5B-F482-48E1-83D5-BCE38E7642FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F11E463-ED62-4964-BCE4-32C1569419EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F11E463-ED62-4964-BCE4-32C1569419EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD8C678-7DED-443A-8F43-6E53E3F94F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD8C678-7DED-443A-8F43-6E53E3F94F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84FCB910-5BD4-43F6-AA40-EF744348DB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84FCB910-5BD4-43F6-AA40-EF744348DB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42B63380-CF05-4C82-832A-EE58887B4E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42B63380-CF05-4C82-832A-EE58887B4E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75312632-322C-4807-8706-1ECF2950E710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75312632-322C-4807-8706-1ECF2950E710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C4301C5-9CCD-4FDA-AD77-A38A649EFE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C4301C5-9CCD-4FDA-AD77-A38A649EFE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8FD978F-1840-4D94-AB2C-E64DDD9A5465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8FD978F-1840-4D94-AB2C-E64DDD9A5465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5148117-C10D-498D-A09B-0D4886DFCD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5148117-C10D-498D-A09B-0D4886DFCD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E1F2617-F43C-435D-84A4-EB3FCE242259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E1F2617-F43C-435D-84A4-EB3FCE242259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81FEAA77-5B7B-4567-98D0-77A5D837C9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81FEAA77-5B7B-4567-98D0-77A5D837C9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E2A6382-EE79-45DB-8794-3D6825111A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E2A6382-EE79-45DB-8794-3D6825111A56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B617A41-07FF-4FDA-A3EE-3FC1377AD3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B617A41-07FF-4FDA-A3EE-3FC1377AD3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C39EFD-D345-427E-9877-C1FD0DDB3534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C39EFD-D345-427E-9877-C1FD0DDB3534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58A7DC47-CB49-4667-9663-ABB2D3E764FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58A7DC47-CB49-4667-9663-ABB2D3E764FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38F4582B-EDD7-4F00-95EB-76187EA89BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38F4582B-EDD7-4F00-95EB-76187EA89BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BABFFE8A-9A61-4F24-B543-FB3CFB622ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BABFFE8A-9A61-4F24-B543-FB3CFB622ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39883BFC-4CE2-4B72-978E-BA72DF6BED32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39883BFC-4CE2-4B72-978E-BA72DF6BED32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EDD6DB2-8717-4D77-BE73-0550F8308D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EDD6DB2-8717-4D77-BE73-0550F8308D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB31CB60-7B1D-44FC-A171-7229D8077CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB31CB60-7B1D-44FC-A171-7229D8077CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A13AFA-1993-403D-8F4B-4D350CE97D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3A13AFA-1993-403D-8F4B-4D350CE97D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD6D503-E902-4BE6-B1D0-63084EDBAE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAD6D503-E902-4BE6-B1D0-63084EDBAE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C502BE-FD62-421A-888C-A176F9594684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53C502BE-FD62-421A-888C-A176F9594684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2953092-61B4-4832-8A8F-76A87A4299DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2953092-61B4-4832-8A8F-76A87A4299DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4509B983-4345-4E1D-8BBA-C13CC7A14946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5570,16 +5570,16 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A155" s="15" t="s">
+      <c r="A155" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B155" s="15">
+      <c r="B155" s="17">
         <v>2019</v>
       </c>
-      <c r="C155" s="15" t="s">
+      <c r="C155" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D155" s="16">
+      <c r="D155" s="18">
         <v>0.71</v>
       </c>
     </row>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4509B983-4345-4E1D-8BBA-C13CC7A14946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21A79921-1D11-49D9-87A4-A8C91A989AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5570,16 +5570,16 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A155" s="17" t="s">
+      <c r="A155" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B155" s="17">
+      <c r="B155" s="15">
         <v>2019</v>
       </c>
-      <c r="C155" s="17" t="s">
+      <c r="C155" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D155" s="18">
+      <c r="D155" s="16">
         <v>0.71</v>
       </c>
     </row>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21A79921-1D11-49D9-87A4-A8C91A989AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EBA5B53-6058-4A41-A732-0D93890B128D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EBA5B53-6058-4A41-A732-0D93890B128D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6746C1C-86B5-4335-8FC4-DB7E4A18C69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6746C1C-86B5-4335-8FC4-DB7E4A18C69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE2CDD4B-2DE3-4A3C-8F70-767EE057B293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE2CDD4B-2DE3-4A3C-8F70-767EE057B293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{737275A5-C868-44CA-A9C5-006717220258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{737275A5-C868-44CA-A9C5-006717220258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4199B6B5-714B-4E47-919B-CD61FC35E697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4199B6B5-714B-4E47-919B-CD61FC35E697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16F0BC99-1CD8-40B7-BDFE-145B141F5609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16F0BC99-1CD8-40B7-BDFE-145B141F5609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{190C99A1-55FB-4726-878A-A310A1B9B1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{190C99A1-55FB-4726-878A-A310A1B9B1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E367A9-634D-4C77-8396-C84E2BE908FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9E367A9-634D-4C77-8396-C84E2BE908FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{573A6867-C2CF-4A86-807D-63ED4E211A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{573A6867-C2CF-4A86-807D-63ED4E211A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2849DDD8-49B0-4D61-A0D2-89D1FFAEE9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2849DDD8-49B0-4D61-A0D2-89D1FFAEE9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96FB5E91-78C7-4A3D-AC85-875ABF3034AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96FB5E91-78C7-4A3D-AC85-875ABF3034AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B366144-737D-4239-B850-37571AF0144A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B366144-737D-4239-B850-37571AF0144A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{282D2034-AA09-4A19-82C6-889600105081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{282D2034-AA09-4A19-82C6-889600105081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{996A6425-9426-417B-A4E3-9B27555F05FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{996A6425-9426-417B-A4E3-9B27555F05FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6E9A845-B235-415D-92C3-D82561F85F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="21599" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6E9A845-B235-415D-92C3-D82561F85F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A635292-B0F5-44B6-A81A-FA833EE07601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="12683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A635292-B0F5-44B6-A81A-FA833EE07601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE603103-F73B-468B-A135-11A8130C561E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3308" yWindow="3308" windowWidth="21600" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veda" sheetId="1" r:id="rId1"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE603103-F73B-468B-A135-11A8130C561E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC287238-1953-4B70-AD60-F4383E3DCD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC287238-1953-4B70-AD60-F4383E3DCD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D1388D6-D444-4035-90B0-EAD31B281C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D1388D6-D444-4035-90B0-EAD31B281C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01960C20-8A1D-4A18-A576-C01369BDF23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57FE980D-3357-4D43-A95E-33F251A185BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DB26213-6BF1-4651-AD33-65C3C0760810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DB26213-6BF1-4651-AD33-65C3C0760810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1102A78C-DA75-4077-9127-2BAA48950714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1102A78C-DA75-4077-9127-2BAA48950714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{239405DA-A11D-4114-8848-09430056742E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{239405DA-A11D-4114-8848-09430056742E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF3EF94-7579-4EF1-B104-8E8E0AC6CFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF3EF94-7579-4EF1-B104-8E8E0AC6CFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68EB2165-7C1B-48A4-A1A2-F875806DFAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68EB2165-7C1B-48A4-A1A2-F875806DFAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{287DDDF4-DAFA-4761-AC26-DE9764213B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{287DDDF4-DAFA-4761-AC26-DE9764213B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAAA9BD0-60FE-4D8D-A8F2-9DBF04D351D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAAA9BD0-60FE-4D8D-A8F2-9DBF04D351D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{582095F5-417E-4200-BA3B-619A0D80932A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{582095F5-417E-4200-BA3B-619A0D80932A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A6FEE6-9343-4A54-87FF-A73C6FC97149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68A6FEE6-9343-4A54-87FF-A73C6FC97149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8F47997-43F7-4B37-A75D-A340977CDC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8F47997-43F7-4B37-A75D-A340977CDC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6F4401-E95B-4B5D-8BEF-B5A085922E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,11 +543,21 @@
     <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -3427,7 +3437,7 @@
     <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="13"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" ht="31.15" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="14" t="s">
         <v>55</v>
       </c>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF6F4401-E95B-4B5D-8BEF-B5A085922E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2805E536-5643-436E-9A4E-DBF617B03371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,21 +543,11 @@
     <xf numFmtId="1" fontId="7" fillId="3" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -3437,7 +3427,7 @@
     <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="13"/>
     </row>
-    <row r="2" spans="1:4" ht="31.15" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="14" t="s">
         <v>55</v>
       </c>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2805E536-5643-436E-9A4E-DBF617B03371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45DC9890-DC63-410F-BB79-B265E49C56DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45DC9890-DC63-410F-BB79-B265E49C56DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE2650F-E2E8-4E2D-9AFC-0CDFACB80259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE2650F-E2E8-4E2D-9AFC-0CDFACB80259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E5C633-AA56-4069-B019-CBEA3BEE08A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E5C633-AA56-4069-B019-CBEA3BEE08A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B73FD70-BD70-44D8-A633-F48490547083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B73FD70-BD70-44D8-A633-F48490547083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A06320BD-9B3C-4F8B-A078-4FFE40605C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A06320BD-9B3C-4F8B-A078-4FFE40605C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1641C1FC-0778-4B1F-860B-CCF13B1717F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1641C1FC-0778-4B1F-860B-CCF13B1717F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{874AC5CA-2911-44CC-9FC7-DC3AE22B825F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6840" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6851" uniqueCount="90">
   <si>
     <t>Delayed transition</t>
   </si>
@@ -291,6 +291,24 @@
   <si>
     <t>CHE</t>
   </si>
+  <si>
+    <t>~tfm_ins-ts</t>
+  </si>
+  <si>
+    <t>Trd_electricity_exp</t>
+  </si>
+  <si>
+    <t>cap_bnd</t>
+  </si>
+  <si>
+    <t>fx</t>
+  </si>
+  <si>
+    <t>Trd_electricity_imp</t>
+  </si>
+  <si>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
 </sst>
 </file>
 
@@ -300,7 +318,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,8 +414,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +458,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +559,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,6 +579,16 @@
     <xf numFmtId="2" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bad" xfId="5" builtinId="27"/>
@@ -2460,6 +2501,56 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C49CBAB-6AA9-2A19-84B6-7B4245838ABD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5073650" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2780,7 +2871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA34"/>
+  <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
@@ -2795,26 +2886,39 @@
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B3" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(B3,$B$7:$C$14,2,FALSE)</f>
         <v>Current Policies</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1</v>
       </c>
@@ -2822,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2</v>
       </c>
@@ -2833,7 +2937,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>3</v>
       </c>
@@ -2844,7 +2948,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10">
         <v>4</v>
       </c>
@@ -2859,7 +2963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>5</v>
       </c>
@@ -2867,7 +2971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>6</v>
       </c>
@@ -2903,7 +3007,7 @@
         <v>158.223670995671</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>7</v>
       </c>
@@ -2911,12 +3015,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:27" ht="17.649999999999999" thickBot="1" x14ac:dyDescent="0.6">
       <c r="Q14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:27" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G15" s="7">
         <v>2020</v>
       </c>
@@ -2972,7 +3076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="G16" s="10">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$H$2:$H$17119,Veda!$Q16,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
         <v>2.1100000000000001E-2</v>
@@ -3377,7 +3481,7 @@
       </c>
     </row>
     <row r="27" spans="2:26" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="7:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G34" s="11">
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!G$15)</f>
         <v>0.66150000000000009</v>
@@ -3406,8 +3510,74 @@
         <f>SUMIFS(iamc_data!$J$2:$J$17119,iamc_data!$B$2:$B$17119,Veda!$C$5,iamc_data!$D$2:$D$17119,Veda!$D21,iamc_data!$I$2:$I$17119,Veda!M$15)</f>
         <v>1.7827</v>
       </c>
+      <c r="Q34" s="13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="7:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="Q35" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R35" s="20">
+        <v>2024</v>
+      </c>
+      <c r="S35" s="20">
+        <v>2030</v>
+      </c>
+      <c r="T35" s="20">
+        <v>2040</v>
+      </c>
+      <c r="U35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V35" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="7:22" x14ac:dyDescent="0.45">
+      <c r="Q36" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="R36" s="22">
+        <v>9.7219999999999995</v>
+      </c>
+      <c r="S36" s="23">
+        <v>12.172000000000001</v>
+      </c>
+      <c r="T36" s="23">
+        <v>12.472</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V36" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="7:22" x14ac:dyDescent="0.45">
+      <c r="Q37" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="R37" s="25">
+        <v>1.2</v>
+      </c>
+      <c r="S37" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="T37" s="26">
+        <v>1.2</v>
+      </c>
+      <c r="U37" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="V37" s="24" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{874AC5CA-2911-44CC-9FC7-DC3AE22B825F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD5D21A3-EE0A-49BC-97AB-CF94E0BD7105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6851" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6851" uniqueCount="88">
   <si>
     <t>Delayed transition</t>
   </si>
@@ -295,16 +295,10 @@
     <t>~tfm_ins-ts</t>
   </si>
   <si>
-    <t>Trd_electricity_exp</t>
-  </si>
-  <si>
     <t>cap_bnd</t>
   </si>
   <si>
     <t>fx</t>
-  </si>
-  <si>
-    <t>Trd_electricity_imp</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
@@ -2519,7 +2513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C49CBAB-6AA9-2A19-84B6-7B4245838ABD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039BEF4C-F539-1D26-7F2A-ABD9FC25F1EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2886,13 +2880,13 @@
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="12" width="5.265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.796875" bestFit="1" customWidth="1"/>
     <col min="18" max="22" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -3536,7 +3530,7 @@
     </row>
     <row r="36" spans="7:22" x14ac:dyDescent="0.45">
       <c r="Q36" s="21" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="R36" s="22">
         <v>9.7219999999999995</v>
@@ -3548,15 +3542,15 @@
         <v>12.472</v>
       </c>
       <c r="U36" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V36" s="21" t="s">
         <v>86</v>
-      </c>
-      <c r="V36" s="21" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="37" spans="7:22" x14ac:dyDescent="0.45">
       <c r="Q37" s="24" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="R37" s="25">
         <v>1.2</v>
@@ -3568,10 +3562,10 @@
         <v>1.2</v>
       </c>
       <c r="U37" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="V37" s="24" t="s">
         <v>86</v>
-      </c>
-      <c r="V37" s="24" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD5D21A3-EE0A-49BC-97AB-CF94E0BD7105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{008CFC30-7D89-4F68-B3E5-7C0665C7C41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
     <t>cap_bnd</t>
   </si>
   <si>
-    <t>fx</t>
+    <t>lo</t>
   </si>
   <si>
     <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
@@ -2513,7 +2513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039BEF4C-F539-1D26-7F2A-ABD9FC25F1EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD26458-AE0E-6E2C-E179-33F7A773F89C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{008CFC30-7D89-4F68-B3E5-7C0665C7C41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84271E4D-961A-4F94-AF00-A1A75984B1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2513,7 +2513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD26458-AE0E-6E2C-E179-33F7A773F89C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3F0F28-1366-36BF-820C-95CE14DBFE60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFE08871-4AC1-437C-A2F2-75DF408DCE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E8ACC67-2790-4921-935C-7F8919171096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2513,7 +2513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C6A94E-75DF-643D-0939-B456C067695B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F1A668-5BFA-9703-26D6-A6CB9444F410}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E8ACC67-2790-4921-935C-7F8919171096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D142E272-121E-453C-8B91-FA51162E7369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2513,7 +2513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F1A668-5BFA-9703-26D6-A6CB9444F410}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59395C09-B4A7-553B-565B-FAA8C44B5166}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D142E272-121E-453C-8B91-FA51162E7369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F39B8A3-D483-447F-8958-DD4DCA5B6D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2513,7 +2513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59395C09-B4A7-553B-565B-FAA8C44B5166}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5AEA22-315E-A953-E860-7DD1113BF023}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F39B8A3-D483-447F-8958-DD4DCA5B6D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF9E5BE9-DEE0-4898-98DE-6307BBFD0DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2513,7 +2513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5AEA22-315E-A953-E860-7DD1113BF023}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15D3477-40AF-35BC-2E31-F2BC4F954419}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>

--- a/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
+++ b/VerveStacks_CHE_grids/SuppXLS/Scen_Par-NGFS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHE_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF9E5BE9-DEE0-4898-98DE-6307BBFD0DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BE81642-07CD-49A4-9181-C97987869A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2513,7 +2513,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15D3477-40AF-35BC-2E31-F2BC4F954419}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E13EFA1-C95A-96EA-A145-203DBDAE55CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
